--- a/Model-output/tukey/plastic.xlsx
+++ b/Model-output/tukey/plastic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelwooliver/Library/CloudStorage/GoogleDrive-rwoolive@utk.edu/My Drive/*1_UTK-postdoc_2020-/5_Microplastic Lab incubation/microplastic-incubation/Model-output/tukey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF47026-C52D-A44B-BB06-02162918225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C6F072-895C-A649-9CD1-9687C4B54C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="3340" windowWidth="33000" windowHeight="17240" xr2:uid="{0C61F5D1-3C2E-DB4B-A133-712B90410F0D}"/>
+    <workbookView xWindow="32480" yWindow="1920" windowWidth="33000" windowHeight="17240" xr2:uid="{0C61F5D1-3C2E-DB4B-A133-712B90410F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="plastic" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +484,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -645,8 +651,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1024,9 +1031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B487AD09-454E-364D-81BB-B0F3C664F784}">
   <dimension ref="A1:N334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -2607,7 +2614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>29</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2671,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>39</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>110</v>
       </c>
@@ -2743,7 +2750,7 @@
         <v>2599.7593664870979</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>510</v>
       </c>
@@ -2775,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>210</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>410</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>310</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>111</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>3269.9186128463493</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>511</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>211</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>411</v>
       </c>
@@ -3007,7 +3014,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>311</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>112</v>
       </c>
@@ -3078,8 +3085,12 @@
         <f>100*K62</f>
         <v>4084.4329803785931</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <f>(C62)/AVERAGE(C59:C61)</f>
+        <v>41.844329803785932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>512</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>212</v>
       </c>
@@ -5247,7 +5258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>225</v>
       </c>
@@ -5279,7 +5290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>126</v>
       </c>
@@ -5319,7 +5330,7 @@
         <v>882.67570287111766</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>426</v>
       </c>
@@ -5351,7 +5362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>326</v>
       </c>
@@ -5383,7 +5394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>226</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>127</v>
       </c>
@@ -5455,143 +5466,159 @@
         <v>990.91494075172454</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
         <v>427</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>-45.428838555071103</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>10.0958550268626</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>24</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>-66.265659223417899</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1">
         <v>-24.592017886724399</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>327</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>73.142127791406693</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>10.0958550268626</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <v>24</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>52.305307123059997</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1">
         <v>93.978948459753497</v>
       </c>
-      <c r="H136" t="s">
-        <v>15</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="H136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="K136" s="1">
+        <f>AVERAGE(C135,C137)</f>
+        <v>-18.308944682101473</v>
+      </c>
+      <c r="L136" s="1">
+        <f>C136-K136</f>
+        <v>91.451072473508162</v>
+      </c>
+      <c r="M136" s="1">
+        <f>(C136)-AVERAGE(C135,C137)</f>
+        <v>91.451072473508162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
         <v>227</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>8.8109491908681594</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>10.0958550268626</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <v>24</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
         <v>-12.025871477478599</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="1">
         <v>29.6477698592149</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
         <v>128</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>371.373766727244</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>10.0958550268626</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>24</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>350.53694605889802</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="1">
         <v>392.21058739559101</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="1">
         <v>193</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="1">
         <f>(C138-AVERAGE(C135:C137))/AVERAGE(C135:C137)</f>
         <v>29.503614809170649</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="1">
         <f>100*K138</f>
         <v>2950.3614809170649</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="1">
+        <f>(C138)/AVERAGE(C135:C137)</f>
+        <v>30.503614809170653</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>428</v>
       </c>
@@ -5623,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>328</v>
       </c>
@@ -5655,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>228</v>
       </c>
@@ -5695,7 +5722,7 @@
         <v>-99.727247354694924</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>129</v>
       </c>
@@ -5727,7 +5754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>429</v>
       </c>
@@ -5759,7 +5786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>329</v>
       </c>
@@ -5791,7 +5818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>229</v>
       </c>
@@ -5823,7 +5850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>130</v>
       </c>
@@ -5855,7 +5882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>430</v>
       </c>
@@ -5887,7 +5914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>330</v>
       </c>
@@ -5919,7 +5946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>230</v>
       </c>
@@ -5951,7 +5978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>131</v>
       </c>
@@ -5983,7 +6010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>431</v>
       </c>
@@ -6015,7 +6042,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>331</v>
       </c>
@@ -6047,7 +6074,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>231</v>
       </c>
@@ -6079,7 +6106,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>132</v>
       </c>
@@ -6111,7 +6138,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>232</v>
       </c>
@@ -6143,7 +6170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>133</v>
       </c>
@@ -6174,8 +6201,12 @@
       <c r="J156">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156">
+        <f>(C156-C155)/C155</f>
+        <v>1.3668918918918918</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>524</v>
       </c>
@@ -6206,8 +6237,12 @@
       <c r="J157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157">
+        <f>(C157-C155)/C155</f>
+        <v>1.0921171171171169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>432</v>
       </c>
@@ -6238,8 +6273,12 @@
       <c r="J158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158">
+        <f>(C158-C155)/C155</f>
+        <v>0.89707207207207196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>332</v>
       </c>
@@ -6270,8 +6309,12 @@
       <c r="J159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159">
+        <f>(C159-C155)/C155</f>
+        <v>0.77725225225225214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>233</v>
       </c>
@@ -6303,7 +6346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>134</v>
       </c>
@@ -6334,8 +6377,12 @@
       <c r="J161">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161">
+        <f>(C161-C160)/C160</f>
+        <v>1.4292817679558008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>525</v>
       </c>
@@ -6366,8 +6413,12 @@
       <c r="J162">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162">
+        <f>(C162-C160)/C160</f>
+        <v>0.92740331491712702</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>433</v>
       </c>
@@ -6398,8 +6449,12 @@
       <c r="J163">
         <v>15</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163">
+        <f>(C163-C160)/C160</f>
+        <v>0.87646408839778989</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>333</v>
       </c>
@@ -6430,8 +6485,12 @@
       <c r="J164">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164">
+        <f>(C164-C160)/C160</f>
+        <v>0.6650828729281768</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>234</v>
       </c>
@@ -6463,7 +6522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>135</v>
       </c>
@@ -6494,8 +6553,12 @@
       <c r="J166">
         <v>30</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166">
+        <f>(C166-C165)/C165</f>
+        <v>1.2318432608940435</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>526</v>
       </c>
@@ -6526,8 +6589,12 @@
       <c r="J167">
         <v>30</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167">
+        <f>(C167-C165)/C165</f>
+        <v>0.80295011822992912</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>434</v>
       </c>
@@ -6558,8 +6625,12 @@
       <c r="J168">
         <v>30</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168">
+        <f>(C168-C165)/C165</f>
+        <v>0.64958901024659388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>334</v>
       </c>
@@ -6590,8 +6661,12 @@
       <c r="J169">
         <v>30</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169">
+        <f>(C169-C165)/C165</f>
+        <v>0.62673122396126546</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>235</v>
       </c>
@@ -6623,7 +6698,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>136</v>
       </c>
@@ -6654,8 +6729,12 @@
       <c r="J171">
         <v>193</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171">
+        <f>(C171-C170)/C170</f>
+        <v>1.559855334538879</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>335</v>
       </c>
@@ -6686,8 +6765,12 @@
       <c r="J172">
         <v>193</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172">
+        <f>(C172-C170)/C170</f>
+        <v>0.96274864376130187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>527</v>
       </c>
@@ -6718,8 +6801,12 @@
       <c r="J173">
         <v>193</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173">
+        <f>(C173-C170)/C170</f>
+        <v>0.9664858348402654</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>435</v>
       </c>
@@ -6750,8 +6837,12 @@
       <c r="J174">
         <v>193</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174">
+        <f>(C174-C170)/C170</f>
+        <v>0.5356238698010849</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>436</v>
       </c>
@@ -6783,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>528</v>
       </c>
